--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/基本面2022-10-24_2.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/基本面2022-10-24_2.xlsx
@@ -1892,8 +1892,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1927,10 +1927,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1949,101 +1950,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2065,7 +1973,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2098,7 +2098,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2110,7 +2110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,13 +2128,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,13 +2152,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2164,19 +2200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2188,7 +2218,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2200,7 +2260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2212,73 +2278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2323,21 +2323,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2347,17 +2332,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2373,6 +2354,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2401,137 +2397,141 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2540,19 +2540,19 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2973,11 +2973,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:T307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -3042,7 +3042,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" hidden="1" spans="1:20">
+    <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -3085,14 +3085,12 @@
       <c r="N2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" hidden="1" spans="1:20">
+    <row r="3" spans="1:20">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3160,7 +3158,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:20">
+    <row r="4" spans="1:20">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:20">
+    <row r="5" spans="1:20">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -3296,7 +3294,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:20">
+    <row r="6" spans="1:20">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -3364,7 +3362,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:20">
+    <row r="7" spans="1:20">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -3432,7 +3430,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:20">
+    <row r="8" spans="1:20">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -3500,7 +3498,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:20">
+    <row r="9" spans="1:20">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -3568,7 +3566,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:20">
+    <row r="10" spans="1:20">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -3636,7 +3634,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:20">
+    <row r="11" spans="1:20">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -3704,7 +3702,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:20">
+    <row r="12" spans="1:20">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -3772,7 +3770,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:20">
+    <row r="13" spans="1:20">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -3840,7 +3838,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:20">
+    <row r="14" spans="1:20">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -3908,7 +3906,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:20">
+    <row r="15" spans="1:20">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -3976,7 +3974,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:20">
+    <row r="16" spans="1:20">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -4044,7 +4042,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:20">
+    <row r="17" spans="1:20">
       <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
@@ -4112,7 +4110,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:20">
+    <row r="18" spans="1:20">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
@@ -4180,7 +4178,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:20">
+    <row r="19" spans="1:20">
       <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
@@ -4248,7 +4246,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:20">
+    <row r="20" spans="1:20">
       <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
@@ -4316,7 +4314,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:20">
+    <row r="21" spans="1:20">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -4384,7 +4382,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:20">
+    <row r="22" spans="1:20">
       <c r="A22" s="6" t="s">
         <v>49</v>
       </c>
@@ -4452,7 +4450,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:20">
+    <row r="23" spans="1:20">
       <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
@@ -4520,7 +4518,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:20">
+    <row r="24" spans="1:20">
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
@@ -4588,7 +4586,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:20">
+    <row r="25" spans="1:20">
       <c r="A25" s="6" t="s">
         <v>55</v>
       </c>
@@ -4656,7 +4654,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:20">
+    <row r="26" spans="1:20">
       <c r="A26" s="6" t="s">
         <v>57</v>
       </c>
@@ -4724,7 +4722,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:20">
+    <row r="27" spans="1:20">
       <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
@@ -4792,7 +4790,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:20">
+    <row r="28" spans="1:20">
       <c r="A28" s="6" t="s">
         <v>61</v>
       </c>
@@ -4860,7 +4858,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:20">
+    <row r="29" spans="1:20">
       <c r="A29" s="6" t="s">
         <v>63</v>
       </c>
@@ -4928,7 +4926,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:20">
+    <row r="30" spans="1:20">
       <c r="A30" s="6" t="s">
         <v>65</v>
       </c>
@@ -4996,7 +4994,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:20">
+    <row r="31" spans="1:20">
       <c r="A31" s="6" t="s">
         <v>67</v>
       </c>
@@ -5064,7 +5062,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:20">
+    <row r="32" spans="1:20">
       <c r="A32" s="6" t="s">
         <v>69</v>
       </c>
@@ -5132,7 +5130,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:20">
+    <row r="33" spans="1:20">
       <c r="A33" s="6" t="s">
         <v>71</v>
       </c>
@@ -5200,7 +5198,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:20">
+    <row r="34" spans="1:20">
       <c r="A34" s="6" t="s">
         <v>73</v>
       </c>
@@ -5268,7 +5266,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:20">
+    <row r="35" spans="1:20">
       <c r="A35" s="6" t="s">
         <v>75</v>
       </c>
@@ -5336,7 +5334,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:20">
+    <row r="36" spans="1:20">
       <c r="A36" s="6" t="s">
         <v>77</v>
       </c>
@@ -5404,7 +5402,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:20">
+    <row r="37" spans="1:20">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -5472,7 +5470,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:20">
+    <row r="38" spans="1:20">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -5540,7 +5538,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:20">
+    <row r="39" spans="1:20">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -5608,7 +5606,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:20">
+    <row r="40" spans="1:20">
       <c r="A40" s="6" t="s">
         <v>85</v>
       </c>
@@ -5676,7 +5674,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:20">
+    <row r="41" spans="1:20">
       <c r="A41" s="6" t="s">
         <v>87</v>
       </c>
@@ -5744,7 +5742,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:20">
+    <row r="42" spans="1:20">
       <c r="A42" s="6" t="s">
         <v>89</v>
       </c>
@@ -5812,7 +5810,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:20">
+    <row r="43" spans="1:20">
       <c r="A43" s="6" t="s">
         <v>91</v>
       </c>
@@ -5880,7 +5878,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:20">
+    <row r="44" spans="1:20">
       <c r="A44" s="6" t="s">
         <v>93</v>
       </c>
@@ -5948,7 +5946,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:20">
+    <row r="45" spans="1:20">
       <c r="A45" s="6" t="s">
         <v>95</v>
       </c>
@@ -6016,7 +6014,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:20">
+    <row r="46" spans="1:20">
       <c r="A46" s="6" t="s">
         <v>97</v>
       </c>
@@ -6084,7 +6082,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:20">
+    <row r="47" spans="1:20">
       <c r="A47" s="6" t="s">
         <v>99</v>
       </c>
@@ -6152,7 +6150,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:20">
+    <row r="48" spans="1:20">
       <c r="A48" s="6" t="s">
         <v>101</v>
       </c>
@@ -6220,7 +6218,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:20">
+    <row r="49" spans="1:20">
       <c r="A49" s="6" t="s">
         <v>103</v>
       </c>
@@ -6288,7 +6286,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:20">
+    <row r="50" spans="1:20">
       <c r="A50" s="6" t="s">
         <v>105</v>
       </c>
@@ -6356,7 +6354,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:20">
+    <row r="51" spans="1:20">
       <c r="A51" s="6" t="s">
         <v>107</v>
       </c>
@@ -6424,7 +6422,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:20">
+    <row r="52" spans="1:20">
       <c r="A52" s="6" t="s">
         <v>109</v>
       </c>
@@ -6492,7 +6490,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:20">
+    <row r="53" spans="1:20">
       <c r="A53" s="6" t="s">
         <v>111</v>
       </c>
@@ -6560,7 +6558,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:20">
+    <row r="54" spans="1:20">
       <c r="A54" s="6" t="s">
         <v>113</v>
       </c>
@@ -6628,7 +6626,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:20">
+    <row r="55" spans="1:20">
       <c r="A55" s="6" t="s">
         <v>115</v>
       </c>
@@ -6764,7 +6762,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:20">
+    <row r="57" spans="1:20">
       <c r="A57" s="6" t="s">
         <v>119</v>
       </c>
@@ -6832,7 +6830,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:20">
+    <row r="58" spans="1:20">
       <c r="A58" s="6" t="s">
         <v>121</v>
       </c>
@@ -6900,7 +6898,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:20">
+    <row r="59" spans="1:20">
       <c r="A59" s="6" t="s">
         <v>123</v>
       </c>
@@ -6968,7 +6966,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:20">
+    <row r="60" spans="1:20">
       <c r="A60" s="6" t="s">
         <v>125</v>
       </c>
@@ -7036,7 +7034,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:20">
+    <row r="61" spans="1:20">
       <c r="A61" s="6" t="s">
         <v>127</v>
       </c>
@@ -7104,7 +7102,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:20">
+    <row r="62" spans="1:20">
       <c r="A62" s="6" t="s">
         <v>129</v>
       </c>
@@ -7172,7 +7170,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:20">
+    <row r="63" spans="1:20">
       <c r="A63" s="6" t="s">
         <v>131</v>
       </c>
@@ -7240,7 +7238,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:20">
+    <row r="64" spans="1:20">
       <c r="A64" s="6" t="s">
         <v>133</v>
       </c>
@@ -7308,7 +7306,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:20">
+    <row r="65" spans="1:20">
       <c r="A65" s="6" t="s">
         <v>135</v>
       </c>
@@ -7376,7 +7374,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:20">
+    <row r="66" spans="1:20">
       <c r="A66" s="6" t="s">
         <v>137</v>
       </c>
@@ -7444,7 +7442,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:20">
+    <row r="67" spans="1:20">
       <c r="A67" s="6" t="s">
         <v>139</v>
       </c>
@@ -7512,7 +7510,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:20">
+    <row r="68" spans="1:20">
       <c r="A68" s="6" t="s">
         <v>141</v>
       </c>
@@ -7580,7 +7578,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:20">
+    <row r="69" spans="1:20">
       <c r="A69" s="6" t="s">
         <v>143</v>
       </c>
@@ -7648,7 +7646,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:20">
+    <row r="70" spans="1:20">
       <c r="A70" s="6" t="s">
         <v>145</v>
       </c>
@@ -7716,7 +7714,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:20">
+    <row r="71" spans="1:20">
       <c r="A71" s="6" t="s">
         <v>147</v>
       </c>
@@ -7784,7 +7782,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:20">
+    <row r="72" spans="1:20">
       <c r="A72" s="6" t="s">
         <v>149</v>
       </c>
@@ -7852,7 +7850,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:20">
+    <row r="73" spans="1:20">
       <c r="A73" s="6" t="s">
         <v>151</v>
       </c>
@@ -7920,7 +7918,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:20">
+    <row r="74" spans="1:20">
       <c r="A74" s="6" t="s">
         <v>153</v>
       </c>
@@ -7988,7 +7986,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:20">
+    <row r="75" spans="1:20">
       <c r="A75" s="6" t="s">
         <v>155</v>
       </c>
@@ -8056,7 +8054,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:20">
+    <row r="76" spans="1:20">
       <c r="A76" s="6" t="s">
         <v>157</v>
       </c>
@@ -8124,7 +8122,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:20">
+    <row r="77" spans="1:20">
       <c r="A77" s="6" t="s">
         <v>159</v>
       </c>
@@ -8192,7 +8190,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:20">
+    <row r="78" spans="1:20">
       <c r="A78" s="6" t="s">
         <v>161</v>
       </c>
@@ -8260,7 +8258,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:20">
+    <row r="79" spans="1:20">
       <c r="A79" s="6" t="s">
         <v>163</v>
       </c>
@@ -8328,7 +8326,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:20">
+    <row r="80" spans="1:20">
       <c r="A80" s="6" t="s">
         <v>165</v>
       </c>
@@ -8396,7 +8394,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:20">
+    <row r="81" spans="1:20">
       <c r="A81" s="6" t="s">
         <v>167</v>
       </c>
@@ -8464,7 +8462,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:20">
+    <row r="82" spans="1:20">
       <c r="A82" s="6" t="s">
         <v>169</v>
       </c>
@@ -8532,7 +8530,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:20">
+    <row r="83" spans="1:20">
       <c r="A83" s="6" t="s">
         <v>171</v>
       </c>
@@ -8600,7 +8598,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:20">
+    <row r="84" spans="1:20">
       <c r="A84" s="6" t="s">
         <v>173</v>
       </c>
@@ -8668,7 +8666,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:20">
+    <row r="85" spans="1:20">
       <c r="A85" s="6" t="s">
         <v>175</v>
       </c>
@@ -8736,7 +8734,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:20">
+    <row r="86" spans="1:20">
       <c r="A86" s="6" t="s">
         <v>177</v>
       </c>
@@ -8804,7 +8802,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:20">
+    <row r="87" spans="1:20">
       <c r="A87" s="6" t="s">
         <v>179</v>
       </c>
@@ -8872,7 +8870,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:20">
+    <row r="88" spans="1:20">
       <c r="A88" s="6" t="s">
         <v>181</v>
       </c>
@@ -8940,7 +8938,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:20">
+    <row r="89" spans="1:20">
       <c r="A89" s="6" t="s">
         <v>183</v>
       </c>
@@ -9008,7 +9006,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:20">
+    <row r="90" spans="1:20">
       <c r="A90" s="6" t="s">
         <v>185</v>
       </c>
@@ -9076,7 +9074,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:20">
+    <row r="91" spans="1:20">
       <c r="A91" s="6" t="s">
         <v>187</v>
       </c>
@@ -9144,7 +9142,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:20">
+    <row r="92" spans="1:20">
       <c r="A92" s="6" t="s">
         <v>189</v>
       </c>
@@ -9212,7 +9210,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:20">
+    <row r="93" spans="1:20">
       <c r="A93" s="6" t="s">
         <v>191</v>
       </c>
@@ -9280,7 +9278,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:20">
+    <row r="94" spans="1:20">
       <c r="A94" s="6" t="s">
         <v>193</v>
       </c>
@@ -9348,7 +9346,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:20">
+    <row r="95" spans="1:20">
       <c r="A95" s="6" t="s">
         <v>195</v>
       </c>
@@ -9416,7 +9414,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:20">
+    <row r="96" spans="1:20">
       <c r="A96" s="6" t="s">
         <v>197</v>
       </c>
@@ -9484,7 +9482,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:20">
+    <row r="97" spans="1:20">
       <c r="A97" s="6" t="s">
         <v>199</v>
       </c>
@@ -9552,7 +9550,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:20">
+    <row r="98" spans="1:20">
       <c r="A98" s="6" t="s">
         <v>201</v>
       </c>
@@ -9620,7 +9618,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:20">
+    <row r="99" spans="1:20">
       <c r="A99" s="6" t="s">
         <v>203</v>
       </c>
@@ -9688,7 +9686,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:20">
+    <row r="100" spans="1:20">
       <c r="A100" s="6" t="s">
         <v>205</v>
       </c>
@@ -9756,7 +9754,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:20">
+    <row r="101" spans="1:20">
       <c r="A101" s="6" t="s">
         <v>207</v>
       </c>
@@ -9824,7 +9822,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:20">
+    <row r="102" spans="1:20">
       <c r="A102" s="6" t="s">
         <v>209</v>
       </c>
@@ -9892,7 +9890,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:20">
+    <row r="103" spans="1:20">
       <c r="A103" s="6" t="s">
         <v>211</v>
       </c>
@@ -9960,7 +9958,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:20">
+    <row r="104" spans="1:20">
       <c r="A104" s="6" t="s">
         <v>213</v>
       </c>
@@ -10028,7 +10026,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:20">
+    <row r="105" spans="1:20">
       <c r="A105" s="6" t="s">
         <v>215</v>
       </c>
@@ -10164,7 +10162,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:20">
+    <row r="107" spans="1:20">
       <c r="A107" s="6" t="s">
         <v>219</v>
       </c>
@@ -10232,7 +10230,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:20">
+    <row r="108" spans="1:20">
       <c r="A108" s="6" t="s">
         <v>221</v>
       </c>
@@ -10300,7 +10298,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:20">
+    <row r="109" spans="1:20">
       <c r="A109" s="6" t="s">
         <v>223</v>
       </c>
@@ -10368,7 +10366,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:20">
+    <row r="110" spans="1:20">
       <c r="A110" s="6" t="s">
         <v>225</v>
       </c>
@@ -10436,7 +10434,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:20">
+    <row r="111" spans="1:20">
       <c r="A111" s="6" t="s">
         <v>228</v>
       </c>
@@ -10504,7 +10502,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:20">
+    <row r="112" spans="1:20">
       <c r="A112" s="6" t="s">
         <v>230</v>
       </c>
@@ -10572,7 +10570,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:20">
+    <row r="113" spans="1:20">
       <c r="A113" s="6" t="s">
         <v>232</v>
       </c>
@@ -10640,7 +10638,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:20">
+    <row r="114" spans="1:20">
       <c r="A114" s="6" t="s">
         <v>234</v>
       </c>
@@ -10708,7 +10706,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:20">
+    <row r="115" spans="1:20">
       <c r="A115" s="6" t="s">
         <v>236</v>
       </c>
@@ -10776,7 +10774,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:20">
+    <row r="116" spans="1:20">
       <c r="A116" s="6" t="s">
         <v>238</v>
       </c>
@@ -10844,7 +10842,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:20">
+    <row r="117" spans="1:20">
       <c r="A117" s="6" t="s">
         <v>240</v>
       </c>
@@ -10912,7 +10910,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:20">
+    <row r="118" spans="1:20">
       <c r="A118" s="6" t="s">
         <v>242</v>
       </c>
@@ -10980,7 +10978,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:20">
+    <row r="119" spans="1:20">
       <c r="A119" s="6" t="s">
         <v>244</v>
       </c>
@@ -11048,7 +11046,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:20">
+    <row r="120" spans="1:20">
       <c r="A120" s="6" t="s">
         <v>246</v>
       </c>
@@ -11184,7 +11182,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:20">
+    <row r="122" spans="1:20">
       <c r="A122" s="6" t="s">
         <v>250</v>
       </c>
@@ -11252,7 +11250,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:20">
+    <row r="123" spans="1:20">
       <c r="A123" s="6" t="s">
         <v>252</v>
       </c>
@@ -11320,7 +11318,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:20">
+    <row r="124" spans="1:20">
       <c r="A124" s="6" t="s">
         <v>254</v>
       </c>
@@ -11388,7 +11386,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:20">
+    <row r="125" spans="1:20">
       <c r="A125" s="6" t="s">
         <v>256</v>
       </c>
@@ -11456,7 +11454,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:20">
+    <row r="126" spans="1:20">
       <c r="A126" s="6" t="s">
         <v>258</v>
       </c>
@@ -11524,7 +11522,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:20">
+    <row r="127" spans="1:20">
       <c r="A127" s="6" t="s">
         <v>260</v>
       </c>
@@ -11592,7 +11590,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:20">
+    <row r="128" spans="1:20">
       <c r="A128" s="6" t="s">
         <v>262</v>
       </c>
@@ -11660,7 +11658,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:20">
+    <row r="129" spans="1:20">
       <c r="A129" s="6" t="s">
         <v>264</v>
       </c>
@@ -11728,7 +11726,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:20">
+    <row r="130" spans="1:20">
       <c r="A130" s="6" t="s">
         <v>266</v>
       </c>
@@ -11796,7 +11794,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:20">
+    <row r="131" spans="1:20">
       <c r="A131" s="6" t="s">
         <v>268</v>
       </c>
@@ -11864,7 +11862,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:20">
+    <row r="132" spans="1:20">
       <c r="A132" s="6" t="s">
         <v>270</v>
       </c>
@@ -11932,7 +11930,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:20">
+    <row r="133" spans="1:20">
       <c r="A133" s="6" t="s">
         <v>272</v>
       </c>
@@ -12000,7 +11998,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:20">
+    <row r="134" spans="1:20">
       <c r="A134" s="6" t="s">
         <v>274</v>
       </c>
@@ -12068,7 +12066,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:20">
+    <row r="135" spans="1:20">
       <c r="A135" s="6" t="s">
         <v>276</v>
       </c>
@@ -12136,7 +12134,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:20">
+    <row r="136" spans="1:20">
       <c r="A136" s="6" t="s">
         <v>278</v>
       </c>
@@ -12204,7 +12202,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:20">
+    <row r="137" spans="1:20">
       <c r="A137" s="6" t="s">
         <v>280</v>
       </c>
@@ -12272,7 +12270,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:20">
+    <row r="138" spans="1:20">
       <c r="A138" s="6" t="s">
         <v>282</v>
       </c>
@@ -12340,7 +12338,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:20">
+    <row r="139" spans="1:20">
       <c r="A139" s="6" t="s">
         <v>284</v>
       </c>
@@ -12408,7 +12406,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:20">
+    <row r="140" spans="1:20">
       <c r="A140" s="6" t="s">
         <v>286</v>
       </c>
@@ -12476,7 +12474,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:20">
+    <row r="141" spans="1:20">
       <c r="A141" s="6" t="s">
         <v>288</v>
       </c>
@@ -12544,7 +12542,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:20">
+    <row r="142" spans="1:20">
       <c r="A142" s="6" t="s">
         <v>290</v>
       </c>
@@ -12612,7 +12610,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:20">
+    <row r="143" spans="1:20">
       <c r="A143" s="6" t="s">
         <v>292</v>
       </c>
@@ -12680,7 +12678,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:20">
+    <row r="144" spans="1:20">
       <c r="A144" s="6" t="s">
         <v>294</v>
       </c>
@@ -12748,8 +12746,8 @@
         <v>否</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:20">
-      <c r="A145" s="6" t="s">
+    <row r="145" spans="1:20">
+      <c r="A145" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -12816,7 +12814,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:20">
+    <row r="146" spans="1:20">
       <c r="A146" s="6" t="s">
         <v>298</v>
       </c>
@@ -12884,7 +12882,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:20">
+    <row r="147" spans="1:20">
       <c r="A147" s="6" t="s">
         <v>300</v>
       </c>
@@ -12952,7 +12950,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:20">
+    <row r="148" spans="1:20">
       <c r="A148" s="6" t="s">
         <v>302</v>
       </c>
@@ -13020,7 +13018,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:20">
+    <row r="149" spans="1:20">
       <c r="A149" s="6" t="s">
         <v>304</v>
       </c>
@@ -13088,7 +13086,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:20">
+    <row r="150" spans="1:20">
       <c r="A150" s="6" t="s">
         <v>306</v>
       </c>
@@ -13156,7 +13154,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:20">
+    <row r="151" spans="1:20">
       <c r="A151" s="6" t="s">
         <v>308</v>
       </c>
@@ -13224,7 +13222,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:20">
+    <row r="152" spans="1:20">
       <c r="A152" s="6" t="s">
         <v>310</v>
       </c>
@@ -13292,7 +13290,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:20">
+    <row r="153" spans="1:20">
       <c r="A153" s="6" t="s">
         <v>312</v>
       </c>
@@ -13360,7 +13358,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:20">
+    <row r="154" spans="1:20">
       <c r="A154" s="6" t="s">
         <v>314</v>
       </c>
@@ -13428,7 +13426,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:20">
+    <row r="155" spans="1:20">
       <c r="A155" s="6" t="s">
         <v>316</v>
       </c>
@@ -13496,8 +13494,8 @@
         <v>是</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:20">
-      <c r="A156" s="6" t="s">
+    <row r="156" spans="1:20">
+      <c r="A156" s="7" t="s">
         <v>318</v>
       </c>
       <c r="B156" s="6" t="s">
@@ -13564,7 +13562,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:20">
+    <row r="157" spans="1:20">
       <c r="A157" s="6" t="s">
         <v>320</v>
       </c>
@@ -13632,7 +13630,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:20">
+    <row r="158" spans="1:20">
       <c r="A158" s="6" t="s">
         <v>322</v>
       </c>
@@ -13700,7 +13698,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:20">
+    <row r="159" spans="1:20">
       <c r="A159" s="6" t="s">
         <v>324</v>
       </c>
@@ -13768,7 +13766,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:20">
+    <row r="160" spans="1:20">
       <c r="A160" s="6" t="s">
         <v>326</v>
       </c>
@@ -13836,7 +13834,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:20">
+    <row r="161" spans="1:20">
       <c r="A161" s="6" t="s">
         <v>328</v>
       </c>
@@ -13904,7 +13902,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:20">
+    <row r="162" spans="1:20">
       <c r="A162" s="6" t="s">
         <v>330</v>
       </c>
@@ -13972,7 +13970,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:20">
+    <row r="163" spans="1:20">
       <c r="A163" s="6" t="s">
         <v>332</v>
       </c>
@@ -14040,7 +14038,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:20">
+    <row r="164" spans="1:20">
       <c r="A164" s="6" t="s">
         <v>334</v>
       </c>
@@ -14108,7 +14106,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:20">
+    <row r="165" spans="1:20">
       <c r="A165" s="6" t="s">
         <v>336</v>
       </c>
@@ -14176,8 +14174,8 @@
         <v>是</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:20">
-      <c r="A166" s="6" t="s">
+    <row r="166" spans="1:20">
+      <c r="A166" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B166" s="6" t="s">
@@ -14244,7 +14242,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:20">
+    <row r="167" spans="1:20">
       <c r="A167" s="6" t="s">
         <v>340</v>
       </c>
@@ -14312,7 +14310,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:20">
+    <row r="168" spans="1:20">
       <c r="A168" s="6" t="s">
         <v>342</v>
       </c>
@@ -14380,7 +14378,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:20">
+    <row r="169" spans="1:20">
       <c r="A169" s="6" t="s">
         <v>344</v>
       </c>
@@ -14448,7 +14446,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:20">
+    <row r="170" spans="1:20">
       <c r="A170" s="6" t="s">
         <v>346</v>
       </c>
@@ -14516,7 +14514,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:20">
+    <row r="171" spans="1:20">
       <c r="A171" s="6" t="s">
         <v>348</v>
       </c>
@@ -14584,7 +14582,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:20">
+    <row r="172" spans="1:20">
       <c r="A172" s="6" t="s">
         <v>350</v>
       </c>
@@ -14652,7 +14650,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:20">
+    <row r="173" spans="1:20">
       <c r="A173" s="6" t="s">
         <v>352</v>
       </c>
@@ -14720,7 +14718,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:20">
+    <row r="174" spans="1:20">
       <c r="A174" s="6" t="s">
         <v>354</v>
       </c>
@@ -14788,7 +14786,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:20">
+    <row r="175" spans="1:20">
       <c r="A175" s="6" t="s">
         <v>356</v>
       </c>
@@ -14856,7 +14854,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:20">
+    <row r="176" spans="1:20">
       <c r="A176" s="6" t="s">
         <v>358</v>
       </c>
@@ -14924,7 +14922,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:20">
+    <row r="177" spans="1:20">
       <c r="A177" s="6" t="s">
         <v>360</v>
       </c>
@@ -14992,7 +14990,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:20">
+    <row r="178" spans="1:20">
       <c r="A178" s="6" t="s">
         <v>362</v>
       </c>
@@ -15060,7 +15058,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:20">
+    <row r="179" spans="1:20">
       <c r="A179" s="6" t="s">
         <v>364</v>
       </c>
@@ -15128,7 +15126,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:20">
+    <row r="180" spans="1:20">
       <c r="A180" s="6" t="s">
         <v>366</v>
       </c>
@@ -15196,7 +15194,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:20">
+    <row r="181" spans="1:20">
       <c r="A181" s="6" t="s">
         <v>368</v>
       </c>
@@ -15264,7 +15262,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:20">
+    <row r="182" spans="1:20">
       <c r="A182" s="6" t="s">
         <v>370</v>
       </c>
@@ -15332,7 +15330,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:20">
+    <row r="183" spans="1:20">
       <c r="A183" s="6" t="s">
         <v>372</v>
       </c>
@@ -15400,7 +15398,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:20">
+    <row r="184" spans="1:20">
       <c r="A184" s="6" t="s">
         <v>374</v>
       </c>
@@ -15468,7 +15466,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:20">
+    <row r="185" spans="1:20">
       <c r="A185" s="6" t="s">
         <v>376</v>
       </c>
@@ -15536,7 +15534,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:20">
+    <row r="186" spans="1:20">
       <c r="A186" s="6" t="s">
         <v>378</v>
       </c>
@@ -15604,7 +15602,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:20">
+    <row r="187" spans="1:20">
       <c r="A187" s="6" t="s">
         <v>380</v>
       </c>
@@ -15672,7 +15670,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:20">
+    <row r="188" spans="1:20">
       <c r="A188" s="6" t="s">
         <v>382</v>
       </c>
@@ -15740,8 +15738,8 @@
         <v>是</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:20">
-      <c r="A189" s="6" t="s">
+    <row r="189" spans="1:20">
+      <c r="A189" s="7" t="s">
         <v>384</v>
       </c>
       <c r="B189" s="6" t="s">
@@ -15808,7 +15806,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:20">
+    <row r="190" spans="1:20">
       <c r="A190" s="6" t="s">
         <v>386</v>
       </c>
@@ -15876,8 +15874,8 @@
         <v>否</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:20">
-      <c r="A191" s="6" t="s">
+    <row r="191" spans="1:20">
+      <c r="A191" s="7" t="s">
         <v>388</v>
       </c>
       <c r="B191" s="6" t="s">
@@ -15944,7 +15942,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:20">
+    <row r="192" spans="1:20">
       <c r="A192" s="6" t="s">
         <v>390</v>
       </c>
@@ -16012,7 +16010,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:20">
+    <row r="193" spans="1:20">
       <c r="A193" s="6" t="s">
         <v>392</v>
       </c>
@@ -16080,7 +16078,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:20">
+    <row r="194" spans="1:20">
       <c r="A194" s="6" t="s">
         <v>394</v>
       </c>
@@ -16216,7 +16214,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:20">
+    <row r="196" spans="1:20">
       <c r="A196" s="6" t="s">
         <v>398</v>
       </c>
@@ -16284,7 +16282,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:20">
+    <row r="197" spans="1:20">
       <c r="A197" s="6" t="s">
         <v>400</v>
       </c>
@@ -16353,7 +16351,7 @@
       </c>
     </row>
     <row r="198" spans="1:20">
-      <c r="A198" s="6" t="s">
+      <c r="A198" s="7" t="s">
         <v>402</v>
       </c>
       <c r="B198" s="7" t="s">
@@ -16420,7 +16418,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:20">
+    <row r="199" spans="1:20">
       <c r="A199" s="6" t="s">
         <v>404</v>
       </c>
@@ -16489,7 +16487,7 @@
       </c>
     </row>
     <row r="200" spans="1:20">
-      <c r="A200" s="6" t="s">
+      <c r="A200" s="7" t="s">
         <v>406</v>
       </c>
       <c r="B200" s="7" t="s">
@@ -16556,7 +16554,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:20">
+    <row r="201" spans="1:20">
       <c r="A201" s="6" t="s">
         <v>408</v>
       </c>
@@ -16624,7 +16622,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:20">
+    <row r="202" spans="1:20">
       <c r="A202" s="6" t="s">
         <v>410</v>
       </c>
@@ -16692,7 +16690,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:20">
+    <row r="203" spans="1:20">
       <c r="A203" s="6" t="s">
         <v>412</v>
       </c>
@@ -16760,7 +16758,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:20">
+    <row r="204" spans="1:20">
       <c r="A204" s="6" t="s">
         <v>414</v>
       </c>
@@ -16828,7 +16826,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:20">
+    <row r="205" spans="1:20">
       <c r="A205" s="6" t="s">
         <v>416</v>
       </c>
@@ -16896,7 +16894,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:20">
+    <row r="206" spans="1:20">
       <c r="A206" s="6" t="s">
         <v>418</v>
       </c>
@@ -16964,7 +16962,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:20">
+    <row r="207" spans="1:20">
       <c r="A207" s="6" t="s">
         <v>420</v>
       </c>
@@ -17032,7 +17030,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:20">
+    <row r="208" spans="1:20">
       <c r="A208" s="6" t="s">
         <v>422</v>
       </c>
@@ -17100,7 +17098,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:20">
+    <row r="209" spans="1:20">
       <c r="A209" s="6" t="s">
         <v>424</v>
       </c>
@@ -17168,7 +17166,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:20">
+    <row r="210" spans="1:20">
       <c r="A210" s="6" t="s">
         <v>426</v>
       </c>
@@ -17236,7 +17234,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:20">
+    <row r="211" spans="1:20">
       <c r="A211" s="6" t="s">
         <v>428</v>
       </c>
@@ -17304,7 +17302,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:20">
+    <row r="212" spans="1:20">
       <c r="A212" s="6" t="s">
         <v>430</v>
       </c>
@@ -17440,7 +17438,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:20">
+    <row r="214" spans="1:20">
       <c r="A214" s="6" t="s">
         <v>434</v>
       </c>
@@ -17508,8 +17506,8 @@
         <v>否</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:20">
-      <c r="A215" s="6" t="s">
+    <row r="215" spans="1:20">
+      <c r="A215" s="7" t="s">
         <v>436</v>
       </c>
       <c r="B215" s="6" t="s">
@@ -17576,7 +17574,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:20">
+    <row r="216" spans="1:20">
       <c r="A216" s="6" t="s">
         <v>438</v>
       </c>
@@ -17644,8 +17642,8 @@
         <v>是</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:20">
-      <c r="A217" s="6" t="s">
+    <row r="217" spans="1:20">
+      <c r="A217" s="7" t="s">
         <v>440</v>
       </c>
       <c r="B217" s="6" t="s">
@@ -17712,7 +17710,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:20">
+    <row r="218" spans="1:20">
       <c r="A218" s="6" t="s">
         <v>442</v>
       </c>
@@ -17780,7 +17778,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:20">
+    <row r="219" spans="1:20">
       <c r="A219" s="6" t="s">
         <v>444</v>
       </c>
@@ -17848,7 +17846,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:20">
+    <row r="220" spans="1:20">
       <c r="A220" s="6" t="s">
         <v>446</v>
       </c>
@@ -17916,7 +17914,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:20">
+    <row r="221" spans="1:20">
       <c r="A221" s="6" t="s">
         <v>448</v>
       </c>
@@ -17984,7 +17982,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:20">
+    <row r="222" spans="1:20">
       <c r="A222" s="6" t="s">
         <v>450</v>
       </c>
@@ -18052,7 +18050,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:20">
+    <row r="223" spans="1:20">
       <c r="A223" s="6" t="s">
         <v>452</v>
       </c>
@@ -18120,7 +18118,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:20">
+    <row r="224" spans="1:20">
       <c r="A224" s="6" t="s">
         <v>454</v>
       </c>
@@ -18188,7 +18186,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:20">
+    <row r="225" spans="1:20">
       <c r="A225" s="6" t="s">
         <v>456</v>
       </c>
@@ -18256,7 +18254,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:20">
+    <row r="226" spans="1:20">
       <c r="A226" s="6" t="s">
         <v>458</v>
       </c>
@@ -18324,7 +18322,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:20">
+    <row r="227" spans="1:20">
       <c r="A227" s="6" t="s">
         <v>460</v>
       </c>
@@ -18392,7 +18390,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:20">
+    <row r="228" spans="1:20">
       <c r="A228" s="6" t="s">
         <v>462</v>
       </c>
@@ -18460,7 +18458,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:20">
+    <row r="229" spans="1:20">
       <c r="A229" s="6" t="s">
         <v>464</v>
       </c>
@@ -18528,7 +18526,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:20">
+    <row r="230" spans="1:20">
       <c r="A230" s="6" t="s">
         <v>466</v>
       </c>
@@ -18596,7 +18594,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:20">
+    <row r="231" spans="1:20">
       <c r="A231" s="6" t="s">
         <v>468</v>
       </c>
@@ -18664,7 +18662,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:20">
+    <row r="232" spans="1:20">
       <c r="A232" s="6" t="s">
         <v>470</v>
       </c>
@@ -18732,7 +18730,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:20">
+    <row r="233" spans="1:20">
       <c r="A233" s="6" t="s">
         <v>472</v>
       </c>
@@ -18800,7 +18798,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:20">
+    <row r="234" spans="1:20">
       <c r="A234" s="6" t="s">
         <v>474</v>
       </c>
@@ -18868,7 +18866,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:20">
+    <row r="235" spans="1:20">
       <c r="A235" s="6" t="s">
         <v>476</v>
       </c>
@@ -18936,7 +18934,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:20">
+    <row r="236" spans="1:20">
       <c r="A236" s="6" t="s">
         <v>478</v>
       </c>
@@ -19004,8 +19002,8 @@
         <v>是</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:20">
-      <c r="A237" s="6" t="s">
+    <row r="237" spans="1:20">
+      <c r="A237" s="7" t="s">
         <v>480</v>
       </c>
       <c r="B237" s="6" t="s">
@@ -19072,7 +19070,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:20">
+    <row r="238" spans="1:20">
       <c r="A238" s="6" t="s">
         <v>482</v>
       </c>
@@ -19140,7 +19138,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:20">
+    <row r="239" spans="1:20">
       <c r="A239" s="6" t="s">
         <v>484</v>
       </c>
@@ -19208,7 +19206,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:20">
+    <row r="240" spans="1:20">
       <c r="A240" s="6" t="s">
         <v>486</v>
       </c>
@@ -19276,7 +19274,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:20">
+    <row r="241" spans="1:20">
       <c r="A241" s="6" t="s">
         <v>488</v>
       </c>
@@ -19344,7 +19342,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:20">
+    <row r="242" spans="1:20">
       <c r="A242" s="6" t="s">
         <v>490</v>
       </c>
@@ -19412,7 +19410,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:20">
+    <row r="243" spans="1:20">
       <c r="A243" s="6" t="s">
         <v>492</v>
       </c>
@@ -19480,7 +19478,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:20">
+    <row r="244" spans="1:20">
       <c r="A244" s="6" t="s">
         <v>494</v>
       </c>
@@ -19548,7 +19546,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:20">
+    <row r="245" spans="1:20">
       <c r="A245" s="6" t="s">
         <v>496</v>
       </c>
@@ -19616,7 +19614,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:20">
+    <row r="246" spans="1:20">
       <c r="A246" s="6" t="s">
         <v>498</v>
       </c>
@@ -19684,7 +19682,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:20">
+    <row r="247" spans="1:20">
       <c r="A247" s="6" t="s">
         <v>500</v>
       </c>
@@ -19752,7 +19750,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:20">
+    <row r="248" spans="1:20">
       <c r="A248" s="6" t="s">
         <v>502</v>
       </c>
@@ -19820,7 +19818,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:20">
+    <row r="249" spans="1:20">
       <c r="A249" s="6" t="s">
         <v>504</v>
       </c>
@@ -19888,7 +19886,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:20">
+    <row r="250" spans="1:20">
       <c r="A250" s="6" t="s">
         <v>506</v>
       </c>
@@ -19956,7 +19954,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:20">
+    <row r="251" spans="1:20">
       <c r="A251" s="6" t="s">
         <v>508</v>
       </c>
@@ -20024,7 +20022,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:20">
+    <row r="252" spans="1:20">
       <c r="A252" s="6" t="s">
         <v>510</v>
       </c>
@@ -20160,7 +20158,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:20">
+    <row r="254" spans="1:20">
       <c r="A254" s="6" t="s">
         <v>514</v>
       </c>
@@ -20228,7 +20226,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:20">
+    <row r="255" spans="1:20">
       <c r="A255" s="6" t="s">
         <v>516</v>
       </c>
@@ -20296,7 +20294,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:20">
+    <row r="256" spans="1:20">
       <c r="A256" s="6" t="s">
         <v>518</v>
       </c>
@@ -20364,7 +20362,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:20">
+    <row r="257" spans="1:20">
       <c r="A257" s="6" t="s">
         <v>520</v>
       </c>
@@ -20432,7 +20430,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:20">
+    <row r="258" spans="1:20">
       <c r="A258" s="6" t="s">
         <v>522</v>
       </c>
@@ -20501,7 +20499,7 @@
       </c>
     </row>
     <row r="259" spans="1:20">
-      <c r="A259" s="6" t="s">
+      <c r="A259" s="7" t="s">
         <v>524</v>
       </c>
       <c r="B259" s="6" t="s">
@@ -20568,7 +20566,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:20">
+    <row r="260" spans="1:20">
       <c r="A260" s="6" t="s">
         <v>526</v>
       </c>
@@ -20636,7 +20634,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="1:20">
+    <row r="261" spans="1:20">
       <c r="A261" s="6" t="s">
         <v>528</v>
       </c>
@@ -20704,7 +20702,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:20">
+    <row r="262" spans="1:20">
       <c r="A262" s="6" t="s">
         <v>530</v>
       </c>
@@ -20772,7 +20770,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:20">
+    <row r="263" spans="1:20">
       <c r="A263" s="6" t="s">
         <v>532</v>
       </c>
@@ -20840,7 +20838,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="1:20">
+    <row r="264" spans="1:20">
       <c r="A264" s="6" t="s">
         <v>534</v>
       </c>
@@ -20908,7 +20906,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:20">
+    <row r="265" spans="1:20">
       <c r="A265" s="6" t="s">
         <v>536</v>
       </c>
@@ -20976,7 +20974,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="266" hidden="1" spans="1:20">
+    <row r="266" spans="1:20">
       <c r="A266" s="6" t="s">
         <v>538</v>
       </c>
@@ -21044,7 +21042,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:20">
+    <row r="267" spans="1:20">
       <c r="A267" s="6" t="s">
         <v>540</v>
       </c>
@@ -21112,7 +21110,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:20">
+    <row r="268" spans="1:20">
       <c r="A268" s="6" t="s">
         <v>542</v>
       </c>
@@ -21180,7 +21178,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:20">
+    <row r="269" spans="1:20">
       <c r="A269" s="6" t="s">
         <v>544</v>
       </c>
@@ -21248,7 +21246,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:20">
+    <row r="270" spans="1:20">
       <c r="A270" s="6" t="s">
         <v>546</v>
       </c>
@@ -21316,7 +21314,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:20">
+    <row r="271" spans="1:20">
       <c r="A271" s="6" t="s">
         <v>548</v>
       </c>
@@ -21384,7 +21382,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:20">
+    <row r="272" spans="1:20">
       <c r="A272" s="6" t="s">
         <v>550</v>
       </c>
@@ -21452,7 +21450,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:20">
+    <row r="273" spans="1:20">
       <c r="A273" s="6" t="s">
         <v>552</v>
       </c>
@@ -21520,7 +21518,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:20">
+    <row r="274" spans="1:20">
       <c r="A274" s="6" t="s">
         <v>554</v>
       </c>
@@ -21588,7 +21586,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:20">
+    <row r="275" spans="1:20">
       <c r="A275" s="6" t="s">
         <v>556</v>
       </c>
@@ -21656,7 +21654,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:20">
+    <row r="276" spans="1:20">
       <c r="A276" s="6" t="s">
         <v>558</v>
       </c>
@@ -21724,7 +21722,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:20">
+    <row r="277" spans="1:20">
       <c r="A277" s="6" t="s">
         <v>560</v>
       </c>
@@ -21792,7 +21790,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:20">
+    <row r="278" spans="1:20">
       <c r="A278" s="6" t="s">
         <v>562</v>
       </c>
@@ -21860,7 +21858,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:20">
+    <row r="279" spans="1:20">
       <c r="A279" s="6" t="s">
         <v>564</v>
       </c>
@@ -21928,7 +21926,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:20">
+    <row r="280" spans="1:20">
       <c r="A280" s="6" t="s">
         <v>566</v>
       </c>
@@ -21996,7 +21994,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:20">
+    <row r="281" spans="1:20">
       <c r="A281" s="6" t="s">
         <v>568</v>
       </c>
@@ -22064,7 +22062,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:20">
+    <row r="282" spans="1:20">
       <c r="A282" s="6" t="s">
         <v>570</v>
       </c>
@@ -22132,7 +22130,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:20">
+    <row r="283" spans="1:20">
       <c r="A283" s="6" t="s">
         <v>572</v>
       </c>
@@ -22200,7 +22198,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:20">
+    <row r="284" spans="1:20">
       <c r="A284" s="6" t="s">
         <v>574</v>
       </c>
@@ -22268,7 +22266,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:20">
+    <row r="285" spans="1:20">
       <c r="A285" s="6" t="s">
         <v>576</v>
       </c>
@@ -22336,7 +22334,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:20">
+    <row r="286" spans="1:20">
       <c r="A286" s="6" t="s">
         <v>578</v>
       </c>
@@ -22404,7 +22402,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:20">
+    <row r="287" spans="1:20">
       <c r="A287" s="6" t="s">
         <v>580</v>
       </c>
@@ -22608,7 +22606,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:20">
+    <row r="290" spans="1:20">
       <c r="A290" s="6" t="s">
         <v>586</v>
       </c>
@@ -22676,7 +22674,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:20">
+    <row r="291" spans="1:20">
       <c r="A291" s="6" t="s">
         <v>588</v>
       </c>
@@ -22744,7 +22742,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:20">
+    <row r="292" spans="1:20">
       <c r="A292" s="6" t="s">
         <v>590</v>
       </c>
@@ -22812,7 +22810,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:20">
+    <row r="293" spans="1:20">
       <c r="A293" s="6" t="s">
         <v>592</v>
       </c>
@@ -22880,7 +22878,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:20">
+    <row r="294" spans="1:20">
       <c r="A294" s="6" t="s">
         <v>594</v>
       </c>
@@ -22948,7 +22946,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:20">
+    <row r="295" spans="1:20">
       <c r="A295" s="6" t="s">
         <v>596</v>
       </c>
@@ -23016,7 +23014,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:20">
+    <row r="296" spans="1:20">
       <c r="A296" s="6" t="s">
         <v>598</v>
       </c>
@@ -23084,7 +23082,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:20">
+    <row r="297" spans="1:20">
       <c r="A297" s="6" t="s">
         <v>600</v>
       </c>
@@ -23220,7 +23218,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:20">
+    <row r="299" spans="1:20">
       <c r="A299" s="6" t="s">
         <v>604</v>
       </c>
@@ -23288,7 +23286,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:20">
+    <row r="300" spans="1:20">
       <c r="A300" s="6" t="s">
         <v>606</v>
       </c>
@@ -23356,7 +23354,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:20">
+    <row r="301" spans="1:20">
       <c r="A301" s="6" t="s">
         <v>608</v>
       </c>
@@ -23424,7 +23422,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:20">
+    <row r="302" spans="1:20">
       <c r="A302" s="6" t="s">
         <v>610</v>
       </c>
@@ -23492,7 +23490,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:20">
+    <row r="303" spans="1:20">
       <c r="A303" s="6" t="s">
         <v>612</v>
       </c>
@@ -23560,7 +23558,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:20">
+    <row r="304" spans="1:20">
       <c r="A304" s="6" t="s">
         <v>614</v>
       </c>
@@ -23628,7 +23626,7 @@
         <v>是</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="1:20">
+    <row r="305" spans="1:20">
       <c r="A305" s="6" t="s">
         <v>616</v>
       </c>
@@ -23696,7 +23694,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="1:20">
+    <row r="306" spans="1:20">
       <c r="A306" s="6" t="s">
         <v>618</v>
       </c>
@@ -23764,7 +23762,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:20">
+    <row r="307" spans="1:20">
       <c r="A307" s="6" t="s">
         <v>620</v>
       </c>
@@ -23833,38 +23831,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="O1:T307">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="是"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="equal" val="是"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="equal" val="是"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="equal" val="是"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="equal" val="是"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="equal" val="是"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
